--- a/SeleniumCucumberBDDFramework/resources-testdata/TestData.xlsx
+++ b/SeleniumCucumberBDDFramework/resources-testdata/TestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A140179-0C14-422E-AC5D-1B312A61FAF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E60F5E-59E8-4FAE-BA35-D0547745C33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Run</t>
-  </si>
-  <si>
-    <t>Bakkappa N</t>
   </si>
   <si>
     <t>abc</t>
@@ -535,130 +532,128 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="1"/>
@@ -672,16 +667,16 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1"/>
@@ -695,16 +690,16 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="1"/>
@@ -718,16 +713,16 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="1"/>
@@ -741,16 +736,16 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="1"/>
@@ -764,16 +759,16 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -783,22 +778,22 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -812,16 +807,16 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -835,16 +830,16 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -858,10 +853,10 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
     </row>
   </sheetData>
